--- a/AAA-Luban-Excel/Datas/func_DropRule.xlsx
+++ b/AAA-Luban-Excel/Datas/func_DropRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +827,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1145,7 +1148,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1277,8 +1280,8 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="9"/>
@@ -1303,8 +1306,8 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:13">
       <c r="A7" s="9"/>
@@ -1330,8 +1333,8 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:13">
       <c r="A8" s="9"/>
@@ -1356,8 +1359,8 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:13">
       <c r="A9" s="9"/>
@@ -1382,8 +1385,8 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:13">
       <c r="A10" s="9"/>
@@ -1408,8 +1411,8 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:13">
       <c r="A11" s="9"/>
@@ -1434,8 +1437,8 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:13">
       <c r="A12" s="9"/>
@@ -1460,8 +1463,8 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:13">
       <c r="A13" s="9"/>
@@ -1486,8 +1489,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:13">
       <c r="A14" s="9"/>
@@ -1512,8 +1515,8 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:13">
       <c r="A15" s="9"/>
@@ -1526,8 +1529,8 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
       <c r="A16" s="9"/>
@@ -1540,8 +1543,8 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:13">
       <c r="A17" s="9"/>
@@ -1554,8 +1557,8 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:13">
       <c r="A18" s="9"/>
@@ -1568,8 +1571,8 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:13">
       <c r="A19" s="9"/>
@@ -1582,28 +1585,36 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:13">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:13">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/func_DropRule.xlsx
+++ b/AAA-Luban-Excel/Datas/func_DropRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8880"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1147,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="155" customHeight="1" spans="1:7">
+    <row r="4" ht="213" customHeight="1" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>

--- a/AAA-Luban-Excel/Datas/func_DropRule.xlsx
+++ b/AAA-Luban-Excel/Datas/func_DropRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27765" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -80,7 +80,9 @@
     <t>名称</t>
   </si>
   <si>
-    <t>本来用作描述，但在这里更像是备注（）</t>
+    <t xml:space="preserve">别的表用作描述，但在这里更像是备注，方便配掉落时寻找。
+对了，这里没有怪物的掉落
+</t>
   </si>
   <si>
     <t>掉落物品ID列表</t>
@@ -93,74 +95,230 @@
 </t>
   </si>
   <si>
-    <t>掉落物品概率列表，与物品ID一一对应,1代表100%,如果只有一个0，则是全部等概率，通常用在第三种掉落逻辑上
+    <t>掉落物品概率列表，与物品ID一一对应,1代表100%,如果只有一个0，则是全部等概率
 注意，如果是第一种掉落逻辑的话，概率加和不能超过1，（可以小于）</t>
   </si>
   <si>
-    <t>等概率，随机掉落一把近战武器</t>
-  </si>
-  <si>
-    <t>260001,260008</t>
-  </si>
-  <si>
-    <t>等概率，随机掉落一把远程武器</t>
+    <t>食物类</t>
+  </si>
+  <si>
+    <t>食物表中随机掉落一个</t>
+  </si>
+  <si>
+    <t>200001,209999</t>
+  </si>
+  <si>
+    <t>投掷物品类</t>
+  </si>
+  <si>
+    <t>木箱,篮球和花瓶随机一个</t>
+  </si>
+  <si>
+    <t>230001,230003</t>
+  </si>
+  <si>
+    <t>木箱</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>花瓶</t>
+  </si>
+  <si>
+    <t>娃娃头</t>
+  </si>
+  <si>
+    <t>钥匙与子弹类</t>
+  </si>
+  <si>
+    <t>一个手枪弹，一个霰弹</t>
+  </si>
+  <si>
+    <t>240004,240005</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>三个手枪弹</t>
+  </si>
+  <si>
+    <t>240004,240004,240004</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>两个霰弹</t>
+  </si>
+  <si>
+    <t>240005</t>
+  </si>
+  <si>
+    <t>随机钥匙</t>
+  </si>
+  <si>
+    <t>240001,240003</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>掉落无名指钥匙</t>
+  </si>
+  <si>
+    <t>240001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>掉落小指</t>
+  </si>
+  <si>
+    <t>240002</t>
+  </si>
+  <si>
+    <t>掉落拇指</t>
+  </si>
+  <si>
+    <t>240003</t>
+  </si>
+  <si>
+    <t>工具类</t>
+  </si>
+  <si>
+    <t>随机工具</t>
+  </si>
+  <si>
+    <t>250001,250006</t>
+  </si>
+  <si>
+    <t>聚光手电</t>
+  </si>
+  <si>
+    <t>250001</t>
+  </si>
+  <si>
+    <t>萤火虫</t>
+  </si>
+  <si>
+    <t>250002</t>
+  </si>
+  <si>
+    <t>奇妙触手</t>
+  </si>
+  <si>
+    <t>250003</t>
+  </si>
+  <si>
+    <t>怀表</t>
+  </si>
+  <si>
+    <t>250004</t>
+  </si>
+  <si>
+    <t>燃液补充瓶</t>
+  </si>
+  <si>
+    <t>250005</t>
+  </si>
+  <si>
+    <t>八音盒</t>
+  </si>
+  <si>
+    <t>250006</t>
+  </si>
+  <si>
+    <t>武器类</t>
+  </si>
+  <si>
+    <t>全武器随机一个</t>
+  </si>
+  <si>
+    <t>260001,269999</t>
+  </si>
+  <si>
+    <t>近战武器随机掉一个</t>
+  </si>
+  <si>
+    <t>260001,264999</t>
+  </si>
+  <si>
+    <t>匕首</t>
+  </si>
+  <si>
+    <t>260001</t>
+  </si>
+  <si>
+    <t>刺剑</t>
+  </si>
+  <si>
+    <t>260002</t>
+  </si>
+  <si>
+    <t>菜刀</t>
+  </si>
+  <si>
+    <t>260003</t>
+  </si>
+  <si>
+    <t>唐刀</t>
+  </si>
+  <si>
+    <t>260004</t>
+  </si>
+  <si>
+    <t>消防斧</t>
+  </si>
+  <si>
+    <t>260005</t>
+  </si>
+  <si>
+    <t>榔头</t>
+  </si>
+  <si>
+    <t>260006</t>
+  </si>
+  <si>
+    <t>大锤</t>
+  </si>
+  <si>
+    <t>260007</t>
+  </si>
+  <si>
+    <t>棒球棍</t>
+  </si>
+  <si>
+    <t>260008</t>
+  </si>
+  <si>
+    <t>全远程武器随机一个</t>
   </si>
   <si>
     <t>265000,269999</t>
   </si>
   <si>
-    <t>手枪弹，霰弹：随机掉落一个</t>
-  </si>
-  <si>
-    <t>240004,240005</t>
-  </si>
-  <si>
-    <t>0.5,0.5</t>
-  </si>
-  <si>
-    <t>随机掉落一种工具</t>
-  </si>
-  <si>
-    <t>250001,250006</t>
-  </si>
-  <si>
-    <t>按阶梯概率随机掉落一种照明工具(手电，萤火虫，打火机)</t>
-  </si>
-  <si>
-    <t>250001,250002,265002</t>
-  </si>
-  <si>
-    <t>0.15,0.30,0.55</t>
-  </si>
-  <si>
-    <t>罐头和瓶装水55开</t>
-  </si>
-  <si>
-    <t>200001,200002</t>
-  </si>
-  <si>
-    <t>必掉落一个罐头</t>
-  </si>
-  <si>
-    <t>200001</t>
-  </si>
-  <si>
-    <t>必掉落一个瓶装水</t>
-  </si>
-  <si>
-    <t>200002</t>
-  </si>
-  <si>
-    <t>必然掉落两瓶水</t>
-  </si>
-  <si>
-    <t>200002,200002</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>教学楼F1示踪者区域310001号房间溺亡者1必掉落一个手枪</t>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>265000</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>265001</t>
+  </si>
+  <si>
+    <t>打火机</t>
+  </si>
+  <si>
+    <t>265002</t>
   </si>
 </sst>
 </file>
@@ -326,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +493,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFBEB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,12 +619,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -538,6 +726,91 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -667,7 +940,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,120 +952,141 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -801,7 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -813,22 +1113,160 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -887,6 +1325,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFBEB9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1145,476 +1588,1393 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10.1083333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.6416666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="67.7166666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.3416666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.7666666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.1833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.99166666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.1083333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.0916666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="50.4333333333333" style="11" customWidth="1"/>
+    <col min="5" max="5" width="35.3416666666667" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25.7666666666667" style="13" customWidth="1"/>
+    <col min="7" max="7" width="33.1833333333333" style="13" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="30.8583333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.1416666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="13" width="9" style="5"/>
+    <col min="9" max="9" width="30.8583333333333" style="9" customWidth="1"/>
+    <col min="10" max="10" width="32.1416666666667" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9" style="9"/>
+    <col min="12" max="13" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="13">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="213" customHeight="1" spans="1:7">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="174" customHeight="1" spans="1:7">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19">
         <v>910001</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3</v>
+      </c>
+      <c r="G5" s="22">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:13">
+      <c r="A6" s="23"/>
+      <c r="B6" s="19">
+        <v>910002</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="26">
         <v>3</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
-        <v>910002</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:13">
+      <c r="A7" s="23"/>
+      <c r="B7" s="19">
+        <v>910003</v>
+      </c>
+      <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="25">
+        <v>230001</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:13">
+      <c r="A8" s="23"/>
+      <c r="B8" s="19">
+        <v>910004</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="25">
+        <v>230002</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:13">
+      <c r="A9" s="23"/>
+      <c r="B9" s="19">
+        <v>910005</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="25">
+        <v>230003</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:13">
+      <c r="A10" s="23"/>
+      <c r="B10" s="19">
+        <v>910006</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="25">
+        <v>230004</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:13">
+      <c r="A11" s="29"/>
+      <c r="B11" s="19">
+        <v>910007</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="32">
+        <v>2</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:13">
+      <c r="A12" s="29"/>
+      <c r="B12" s="19">
+        <v>910008</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:13">
+      <c r="A13" s="29"/>
+      <c r="B13" s="19">
+        <v>910009</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="35">
+        <v>2</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:13">
+      <c r="A14" s="29"/>
+      <c r="B14" s="19">
+        <v>910010</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:13">
+      <c r="A15" s="29"/>
+      <c r="B15" s="19">
+        <v>910011</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:13">
+      <c r="A16" s="29"/>
+      <c r="B16" s="19">
+        <v>910012</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:13">
+      <c r="A17" s="29"/>
+      <c r="B17" s="19">
+        <v>910013</v>
+      </c>
+      <c r="C17" s="33">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="1:13">
+      <c r="A18" s="39"/>
+      <c r="B18" s="19">
+        <v>910014</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="1:13">
+      <c r="A19" s="39"/>
+      <c r="B19" s="19">
+        <v>910015</v>
+      </c>
+      <c r="C19" s="40">
+        <v>0</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="1:13">
+      <c r="A20" s="39"/>
+      <c r="B20" s="19">
+        <v>910016</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:13">
+      <c r="A21" s="39"/>
+      <c r="B21" s="19">
+        <v>910017</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:13">
+      <c r="A22" s="39"/>
+      <c r="B22" s="19">
+        <v>910018</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="1:13">
+      <c r="A23" s="39"/>
+      <c r="B23" s="19">
+        <v>910019</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" s="5" customFormat="1" spans="1:13">
+      <c r="A24" s="39"/>
+      <c r="B24" s="19">
+        <v>910020</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="1:13">
+      <c r="A25" s="43"/>
+      <c r="B25" s="19">
+        <v>910021</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="46">
         <v>3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G25" s="46">
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
-        <v>910003</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:13">
+      <c r="A26" s="43"/>
+      <c r="B26" s="19">
+        <v>910022</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="46">
+        <v>3</v>
+      </c>
+      <c r="G26" s="46">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
-        <v>910004</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:13">
+      <c r="A27" s="43"/>
+      <c r="B27" s="19">
+        <v>910023</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="1:13">
+      <c r="A28" s="43"/>
+      <c r="B28" s="19">
+        <v>910024</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="1:13">
+      <c r="A29" s="43"/>
+      <c r="B29" s="19">
+        <v>910025</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+    </row>
+    <row r="30" s="6" customFormat="1" spans="1:13">
+      <c r="A30" s="43"/>
+      <c r="B30" s="19">
+        <v>910026</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+    </row>
+    <row r="31" s="6" customFormat="1" spans="1:13">
+      <c r="A31" s="43"/>
+      <c r="B31" s="19">
+        <v>910027</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+    </row>
+    <row r="32" s="6" customFormat="1" spans="1:13">
+      <c r="A32" s="43"/>
+      <c r="B32" s="19">
+        <v>910028</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" s="6" customFormat="1" spans="1:13">
+      <c r="A33" s="43"/>
+      <c r="B33" s="19">
+        <v>910029</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+    </row>
+    <row r="34" s="6" customFormat="1" spans="1:13">
+      <c r="A34" s="43"/>
+      <c r="B34" s="19">
+        <v>910030</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+    </row>
+    <row r="35" s="6" customFormat="1" spans="1:13">
+      <c r="A35" s="43"/>
+      <c r="B35" s="19">
+        <v>910031</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="46">
+        <v>3</v>
+      </c>
+      <c r="G35" s="46">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="10">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
-        <v>910005</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:13">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
-        <v>910006</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:13">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
-        <v>910007</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:13">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10">
-        <v>910008</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10">
-        <v>910009</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:13">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10">
-        <v>910010</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="10">
-        <v>265000</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:13">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:13">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:13">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:13">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:13">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:13">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+    </row>
+    <row r="36" s="6" customFormat="1" spans="1:13">
+      <c r="A36" s="43"/>
+      <c r="B36" s="19">
+        <v>910032</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+    </row>
+    <row r="37" s="6" customFormat="1" spans="1:13">
+      <c r="A37" s="43"/>
+      <c r="B37" s="19">
+        <v>910033</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+    </row>
+    <row r="38" s="6" customFormat="1" spans="1:13">
+      <c r="A38" s="43"/>
+      <c r="B38" s="19">
+        <v>910034</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="49"/>
+      <c r="C57" s="50"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+    </row>
+    <row r="63" s="7" customFormat="1" spans="1:13">
+      <c r="A63" s="53"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+    </row>
+    <row r="64" s="7" customFormat="1" spans="1:13">
+      <c r="A64" s="53"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+    </row>
+    <row r="65" s="7" customFormat="1" spans="1:13">
+      <c r="A65" s="53"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+    </row>
+    <row r="66" s="7" customFormat="1" spans="1:13">
+      <c r="A66" s="53"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+    </row>
+    <row r="67" s="7" customFormat="1" spans="1:13">
+      <c r="A67" s="53"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="60"/>
+      <c r="M67" s="60"/>
+    </row>
+    <row r="68" s="7" customFormat="1" spans="1:13">
+      <c r="A68" s="53"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
+    </row>
+    <row r="69" s="7" customFormat="1" spans="1:13">
+      <c r="A69" s="53"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+    </row>
+    <row r="70" s="7" customFormat="1" spans="1:13">
+      <c r="A70" s="53"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="60"/>
+    </row>
+    <row r="71" s="7" customFormat="1" spans="1:13">
+      <c r="A71" s="53"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+    </row>
+    <row r="72" s="7" customFormat="1" spans="1:13">
+      <c r="A72" s="53"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+    </row>
+    <row r="73" s="7" customFormat="1" spans="1:13">
+      <c r="A73" s="53"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="50"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+    </row>
+    <row r="74" s="7" customFormat="1" spans="1:13">
+      <c r="A74" s="53"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="50"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="50"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="50"/>
+    </row>
+    <row r="116" s="8" customFormat="1" spans="1:13">
+      <c r="A116" s="65"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="68"/>
+    </row>
+    <row r="117" s="8" customFormat="1" spans="1:13">
+      <c r="A117" s="65"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="65"/>
+      <c r="L117" s="68"/>
+      <c r="M117" s="68"/>
+    </row>
+    <row r="118" s="8" customFormat="1" spans="1:13">
+      <c r="A118" s="65"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="67"/>
+      <c r="H118"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="65"/>
+      <c r="K118" s="65"/>
+      <c r="L118" s="68"/>
+      <c r="M118" s="68"/>
+    </row>
+    <row r="119" s="8" customFormat="1" spans="1:13">
+      <c r="A119" s="65"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="I119" s="65"/>
+      <c r="J119" s="65"/>
+      <c r="K119" s="65"/>
+      <c r="L119" s="68"/>
+      <c r="M119" s="68"/>
+    </row>
+    <row r="120" s="8" customFormat="1" spans="1:13">
+      <c r="A120" s="65"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="66"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="65"/>
+      <c r="L120" s="68"/>
+      <c r="M120" s="68"/>
+    </row>
+    <row r="121" s="8" customFormat="1" spans="1:13">
+      <c r="A121" s="65"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
+      <c r="L121" s="68"/>
+      <c r="M121" s="68"/>
+    </row>
+    <row r="124" s="8" customFormat="1" spans="1:13">
+      <c r="A124" s="65"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="68"/>
+      <c r="M124" s="68"/>
+    </row>
+    <row r="125" s="8" customFormat="1" spans="1:13">
+      <c r="A125" s="65"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="65"/>
+      <c r="L125" s="68"/>
+      <c r="M125" s="68"/>
+    </row>
+    <row r="126" s="8" customFormat="1" spans="1:13">
+      <c r="A126" s="65"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
+      <c r="L126" s="68"/>
+      <c r="M126" s="68"/>
+    </row>
+    <row r="127" s="8" customFormat="1" spans="1:13">
+      <c r="A127" s="65"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
+      <c r="L127" s="68"/>
+      <c r="M127" s="68"/>
+    </row>
+    <row r="128" s="8" customFormat="1" spans="1:13">
+      <c r="A128" s="65"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
+      <c r="L128" s="68"/>
+      <c r="M128" s="68"/>
+    </row>
+    <row r="129" s="8" customFormat="1" spans="1:13">
+      <c r="A129" s="65"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="66"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
+      <c r="L129" s="68"/>
+      <c r="M129" s="68"/>
+    </row>
+    <row r="130" s="8" customFormat="1" spans="1:13">
+      <c r="A130" s="65"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
+      <c r="L130" s="68"/>
+      <c r="M130" s="68"/>
+    </row>
+    <row r="131" s="8" customFormat="1" spans="1:13">
+      <c r="A131" s="65"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="66"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
+      <c r="L131" s="68"/>
+      <c r="M131" s="68"/>
+    </row>
+    <row r="132" s="8" customFormat="1" spans="1:13">
+      <c r="A132" s="65"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="I132" s="65"/>
+      <c r="J132" s="65"/>
+      <c r="K132" s="65"/>
+      <c r="L132" s="68"/>
+      <c r="M132" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/func_DropRule.xlsx
+++ b/AAA-Luban-Excel/Datas/func_DropRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="8805"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -1064,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,9 +1089,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,9 +1146,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1257,20 +1251,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1590,1391 +1572,1393 @@
   <sheetPr/>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.99166666666667" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.1083333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.0916666666667" style="11" customWidth="1"/>
-    <col min="4" max="4" width="50.4333333333333" style="11" customWidth="1"/>
-    <col min="5" max="5" width="35.3416666666667" style="12" customWidth="1"/>
-    <col min="6" max="6" width="25.7666666666667" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33.1833333333333" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.99166666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.1083333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.0916666666667" style="10" customWidth="1"/>
+    <col min="4" max="4" width="50.4333333333333" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35.3416666666667" style="11" customWidth="1"/>
+    <col min="6" max="6" width="25.7666666666667" style="12" customWidth="1"/>
+    <col min="7" max="7" width="33.1833333333333" style="12" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="30.8583333333333" style="9" customWidth="1"/>
-    <col min="10" max="10" width="32.1416666666667" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9" style="9"/>
-    <col min="12" max="13" width="9" style="14"/>
+    <col min="9" max="9" width="30.8583333333333" style="8" customWidth="1"/>
+    <col min="10" max="10" width="32.1416666666667" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9" style="8"/>
+    <col min="12" max="13" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="27" spans="1:7">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="15" t="s">
+    <row r="2" ht="27" spans="1:7">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
+    <row r="3" ht="27" spans="1:7">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13">
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="174" customHeight="1" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18">
         <v>910001</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>3</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>0</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:13">
-      <c r="A6" s="23"/>
-      <c r="B6" s="19">
+      <c r="A6" s="22"/>
+      <c r="B6" s="18">
         <v>910002</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>3</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>0</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:13">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19">
+      <c r="A7" s="22"/>
+      <c r="B7" s="18">
         <v>910003</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>0</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>230001</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>1</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>1</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:13">
-      <c r="A8" s="23"/>
-      <c r="B8" s="19">
+      <c r="A8" s="22"/>
+      <c r="B8" s="18">
         <v>910004</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>0</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>230002</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>1</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>1</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:13">
-      <c r="A9" s="23"/>
-      <c r="B9" s="19">
+      <c r="A9" s="22"/>
+      <c r="B9" s="18">
         <v>910005</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>0</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>230003</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>1</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>1</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:13">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19">
+      <c r="A10" s="22"/>
+      <c r="B10" s="18">
         <v>910006</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>0</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>230004</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>1</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>1</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
-      <c r="A11" s="29"/>
-      <c r="B11" s="19">
+      <c r="A11" s="27"/>
+      <c r="B11" s="18">
         <v>910007</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
-      <c r="A12" s="29"/>
-      <c r="B12" s="19">
+      <c r="A12" s="27"/>
+      <c r="B12" s="18">
         <v>910008</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="31">
         <v>0</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>2</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:13">
-      <c r="A13" s="29"/>
-      <c r="B13" s="19">
+      <c r="A13" s="27"/>
+      <c r="B13" s="18">
         <v>910009</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>0</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>2</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:13">
-      <c r="A14" s="29"/>
-      <c r="B14" s="19">
+      <c r="A14" s="27"/>
+      <c r="B14" s="18">
         <v>910010</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="31">
         <v>0</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:13">
-      <c r="A15" s="29"/>
-      <c r="B15" s="19">
+      <c r="A15" s="27"/>
+      <c r="B15" s="18">
         <v>910011</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="31">
         <v>0</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="F15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:13">
-      <c r="A16" s="29"/>
-      <c r="B16" s="19">
+      <c r="A16" s="27"/>
+      <c r="B16" s="18">
         <v>910012</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="31">
         <v>0</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="F16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:13">
-      <c r="A17" s="29"/>
-      <c r="B17" s="19">
+      <c r="A17" s="27"/>
+      <c r="B17" s="18">
         <v>910013</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="31">
         <v>0</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="F17" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:13">
-      <c r="A18" s="39"/>
-      <c r="B18" s="19">
+      <c r="A18" s="37"/>
+      <c r="B18" s="18">
         <v>910014</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:13">
-      <c r="A19" s="39"/>
-      <c r="B19" s="19">
+      <c r="A19" s="37"/>
+      <c r="B19" s="18">
         <v>910015</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="38">
         <v>0</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
+      <c r="F19" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:13">
-      <c r="A20" s="39"/>
-      <c r="B20" s="19">
+      <c r="A20" s="37"/>
+      <c r="B20" s="18">
         <v>910016</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
+      <c r="F20" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:13">
-      <c r="A21" s="39"/>
-      <c r="B21" s="19">
+      <c r="A21" s="37"/>
+      <c r="B21" s="18">
         <v>910017</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
+      <c r="F21" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:13">
-      <c r="A22" s="39"/>
-      <c r="B22" s="19">
+      <c r="A22" s="37"/>
+      <c r="B22" s="18">
         <v>910018</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
+      <c r="F22" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:13">
-      <c r="A23" s="39"/>
-      <c r="B23" s="19">
+      <c r="A23" s="37"/>
+      <c r="B23" s="18">
         <v>910019</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
+      <c r="F23" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:13">
-      <c r="A24" s="39"/>
-      <c r="B24" s="19">
+      <c r="A24" s="37"/>
+      <c r="B24" s="18">
         <v>910020</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
+      <c r="F24" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" s="6" customFormat="1" spans="1:13">
-      <c r="A25" s="43"/>
-      <c r="B25" s="19">
+      <c r="A25" s="41"/>
+      <c r="B25" s="18">
         <v>910021</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="44">
         <v>3</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="44">
         <v>0</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:13">
-      <c r="A26" s="43"/>
-      <c r="B26" s="19">
+      <c r="A26" s="41"/>
+      <c r="B26" s="18">
         <v>910022</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="44">
         <v>3</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="44">
         <v>0</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:13">
-      <c r="A27" s="43"/>
-      <c r="B27" s="19">
+      <c r="A27" s="41"/>
+      <c r="B27" s="18">
         <v>910023</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="47" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
+      <c r="F27" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
     </row>
     <row r="28" s="6" customFormat="1" spans="1:13">
-      <c r="A28" s="43"/>
-      <c r="B28" s="19">
+      <c r="A28" s="41"/>
+      <c r="B28" s="18">
         <v>910024</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="47" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="F28" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="1:13">
-      <c r="A29" s="43"/>
-      <c r="B29" s="19">
+      <c r="A29" s="41"/>
+      <c r="B29" s="18">
         <v>910025</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="F29" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" s="6" customFormat="1" spans="1:13">
-      <c r="A30" s="43"/>
-      <c r="B30" s="19">
+      <c r="A30" s="41"/>
+      <c r="B30" s="18">
         <v>910026</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
+      <c r="F30" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
     </row>
     <row r="31" s="6" customFormat="1" spans="1:13">
-      <c r="A31" s="43"/>
-      <c r="B31" s="19">
+      <c r="A31" s="41"/>
+      <c r="B31" s="18">
         <v>910027</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="F31" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" s="6" customFormat="1" spans="1:13">
-      <c r="A32" s="43"/>
-      <c r="B32" s="19">
+      <c r="A32" s="41"/>
+      <c r="B32" s="18">
         <v>910028</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="47" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
+      <c r="F32" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" s="6" customFormat="1" spans="1:13">
-      <c r="A33" s="43"/>
-      <c r="B33" s="19">
+      <c r="A33" s="41"/>
+      <c r="B33" s="18">
         <v>910029</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="47" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
+      <c r="F33" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" s="6" customFormat="1" spans="1:13">
-      <c r="A34" s="43"/>
-      <c r="B34" s="19">
+      <c r="A34" s="41"/>
+      <c r="B34" s="18">
         <v>910030</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="47" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
+      <c r="F34" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
     </row>
     <row r="35" s="6" customFormat="1" spans="1:13">
-      <c r="A35" s="43"/>
-      <c r="B35" s="19">
+      <c r="A35" s="41"/>
+      <c r="B35" s="18">
         <v>910031</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="44">
         <v>3</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="44">
         <v>0</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
     </row>
     <row r="36" s="6" customFormat="1" spans="1:13">
-      <c r="A36" s="43"/>
-      <c r="B36" s="19">
+      <c r="A36" s="41"/>
+      <c r="B36" s="18">
         <v>910032</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="47" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
+      <c r="F36" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
     </row>
     <row r="37" s="6" customFormat="1" spans="1:13">
-      <c r="A37" s="43"/>
-      <c r="B37" s="19">
+      <c r="A37" s="41"/>
+      <c r="B37" s="18">
         <v>910033</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="47" t="s">
+      <c r="C37" s="42"/>
+      <c r="D37" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
+      <c r="F37" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
     </row>
     <row r="38" s="6" customFormat="1" spans="1:13">
-      <c r="A38" s="43"/>
-      <c r="B38" s="19">
+      <c r="A38" s="41"/>
+      <c r="B38" s="18">
         <v>910034</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="47" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
+      <c r="F38" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="49"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="49"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" s="7" customFormat="1" spans="1:13">
-      <c r="A63" s="53"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
     </row>
     <row r="64" s="7" customFormat="1" spans="1:13">
-      <c r="A64" s="53"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="58"/>
     </row>
     <row r="65" s="7" customFormat="1" spans="1:13">
-      <c r="A65" s="53"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
     </row>
     <row r="66" s="7" customFormat="1" spans="1:13">
-      <c r="A66" s="53"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
     </row>
     <row r="67" s="7" customFormat="1" spans="1:13">
-      <c r="A67" s="53"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
     </row>
     <row r="68" s="7" customFormat="1" spans="1:13">
-      <c r="A68" s="53"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="61"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
     </row>
     <row r="69" s="7" customFormat="1" spans="1:13">
-      <c r="A69" s="53"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="61"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
     </row>
     <row r="70" s="7" customFormat="1" spans="1:13">
-      <c r="A70" s="53"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="58"/>
     </row>
     <row r="71" s="7" customFormat="1" spans="1:13">
-      <c r="A71" s="53"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
     </row>
     <row r="72" s="7" customFormat="1" spans="1:13">
-      <c r="A72" s="53"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
     </row>
     <row r="73" s="7" customFormat="1" spans="1:13">
-      <c r="A73" s="53"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="50"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="48"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
     </row>
     <row r="74" s="7" customFormat="1" spans="1:13">
-      <c r="A74" s="53"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="50"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="48"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="58"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="50"/>
+      <c r="C75" s="48"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="50"/>
-    </row>
-    <row r="116" s="8" customFormat="1" spans="1:13">
-      <c r="A116" s="65"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="67"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-      <c r="L116" s="68"/>
-      <c r="M116" s="68"/>
-    </row>
-    <row r="117" s="8" customFormat="1" spans="1:13">
-      <c r="A117" s="65"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="I117" s="65"/>
-      <c r="J117" s="65"/>
-      <c r="K117" s="65"/>
-      <c r="L117" s="68"/>
-      <c r="M117" s="68"/>
-    </row>
-    <row r="118" s="8" customFormat="1" spans="1:13">
-      <c r="A118" s="65"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="67"/>
-      <c r="G118" s="67"/>
+      <c r="C76" s="48"/>
+    </row>
+    <row r="116" s="7" customFormat="1" spans="1:13">
+      <c r="A116" s="51"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="62"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="58"/>
+      <c r="M116" s="58"/>
+    </row>
+    <row r="117" s="7" customFormat="1" spans="1:13">
+      <c r="A117" s="51"/>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="62"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="58"/>
+    </row>
+    <row r="118" s="7" customFormat="1" spans="1:13">
+      <c r="A118" s="51"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="62"/>
       <c r="H118"/>
-      <c r="I118" s="65"/>
-      <c r="J118" s="65"/>
-      <c r="K118" s="65"/>
-      <c r="L118" s="68"/>
-      <c r="M118" s="68"/>
-    </row>
-    <row r="119" s="8" customFormat="1" spans="1:13">
-      <c r="A119" s="65"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="I119" s="65"/>
-      <c r="J119" s="65"/>
-      <c r="K119" s="65"/>
-      <c r="L119" s="68"/>
-      <c r="M119" s="68"/>
-    </row>
-    <row r="120" s="8" customFormat="1" spans="1:13">
-      <c r="A120" s="65"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="I120" s="65"/>
-      <c r="J120" s="65"/>
-      <c r="K120" s="65"/>
-      <c r="L120" s="68"/>
-      <c r="M120" s="68"/>
-    </row>
-    <row r="121" s="8" customFormat="1" spans="1:13">
-      <c r="A121" s="65"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="I121" s="65"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65"/>
-      <c r="L121" s="68"/>
-      <c r="M121" s="68"/>
-    </row>
-    <row r="124" s="8" customFormat="1" spans="1:13">
-      <c r="A124" s="65"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="67"/>
-      <c r="F124" s="67"/>
-      <c r="G124" s="67"/>
-      <c r="I124" s="65"/>
-      <c r="J124" s="65"/>
-      <c r="K124" s="65"/>
-      <c r="L124" s="68"/>
-      <c r="M124" s="68"/>
-    </row>
-    <row r="125" s="8" customFormat="1" spans="1:13">
-      <c r="A125" s="65"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="66"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="I125" s="65"/>
-      <c r="J125" s="65"/>
-      <c r="K125" s="65"/>
-      <c r="L125" s="68"/>
-      <c r="M125" s="68"/>
-    </row>
-    <row r="126" s="8" customFormat="1" spans="1:13">
-      <c r="A126" s="65"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="67"/>
-      <c r="I126" s="65"/>
-      <c r="J126" s="65"/>
-      <c r="K126" s="65"/>
-      <c r="L126" s="68"/>
-      <c r="M126" s="68"/>
-    </row>
-    <row r="127" s="8" customFormat="1" spans="1:13">
-      <c r="A127" s="65"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="I127" s="65"/>
-      <c r="J127" s="65"/>
-      <c r="K127" s="65"/>
-      <c r="L127" s="68"/>
-      <c r="M127" s="68"/>
-    </row>
-    <row r="128" s="8" customFormat="1" spans="1:13">
-      <c r="A128" s="65"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="67"/>
-      <c r="I128" s="65"/>
-      <c r="J128" s="65"/>
-      <c r="K128" s="65"/>
-      <c r="L128" s="68"/>
-      <c r="M128" s="68"/>
-    </row>
-    <row r="129" s="8" customFormat="1" spans="1:13">
-      <c r="A129" s="65"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="66"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="I129" s="65"/>
-      <c r="J129" s="65"/>
-      <c r="K129" s="65"/>
-      <c r="L129" s="68"/>
-      <c r="M129" s="68"/>
-    </row>
-    <row r="130" s="8" customFormat="1" spans="1:13">
-      <c r="A130" s="65"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="67"/>
-      <c r="F130" s="67"/>
-      <c r="G130" s="67"/>
-      <c r="I130" s="65"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="65"/>
-      <c r="L130" s="68"/>
-      <c r="M130" s="68"/>
-    </row>
-    <row r="131" s="8" customFormat="1" spans="1:13">
-      <c r="A131" s="65"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="65"/>
-      <c r="K131" s="65"/>
-      <c r="L131" s="68"/>
-      <c r="M131" s="68"/>
-    </row>
-    <row r="132" s="8" customFormat="1" spans="1:13">
-      <c r="A132" s="65"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="67"/>
-      <c r="F132" s="67"/>
-      <c r="G132" s="67"/>
-      <c r="I132" s="65"/>
-      <c r="J132" s="65"/>
-      <c r="K132" s="65"/>
-      <c r="L132" s="68"/>
-      <c r="M132" s="68"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="58"/>
+    </row>
+    <row r="119" s="7" customFormat="1" spans="1:13">
+      <c r="A119" s="51"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="58"/>
+      <c r="M119" s="58"/>
+    </row>
+    <row r="120" s="7" customFormat="1" spans="1:13">
+      <c r="A120" s="51"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="62"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="58"/>
+      <c r="M120" s="58"/>
+    </row>
+    <row r="121" s="7" customFormat="1" spans="1:13">
+      <c r="A121" s="51"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="62"/>
+      <c r="G121" s="62"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="58"/>
+      <c r="M121" s="58"/>
+    </row>
+    <row r="124" s="7" customFormat="1" spans="1:13">
+      <c r="A124" s="51"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="62"/>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
+      <c r="K124" s="51"/>
+      <c r="L124" s="58"/>
+      <c r="M124" s="58"/>
+    </row>
+    <row r="125" s="7" customFormat="1" spans="1:13">
+      <c r="A125" s="51"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="58"/>
+      <c r="M125" s="58"/>
+    </row>
+    <row r="126" s="7" customFormat="1" spans="1:13">
+      <c r="A126" s="51"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="I126" s="51"/>
+      <c r="J126" s="51"/>
+      <c r="K126" s="51"/>
+      <c r="L126" s="58"/>
+      <c r="M126" s="58"/>
+    </row>
+    <row r="127" s="7" customFormat="1" spans="1:13">
+      <c r="A127" s="51"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62"/>
+      <c r="I127" s="51"/>
+      <c r="J127" s="51"/>
+      <c r="K127" s="51"/>
+      <c r="L127" s="58"/>
+      <c r="M127" s="58"/>
+    </row>
+    <row r="128" s="7" customFormat="1" spans="1:13">
+      <c r="A128" s="51"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
+      <c r="K128" s="51"/>
+      <c r="L128" s="58"/>
+      <c r="M128" s="58"/>
+    </row>
+    <row r="129" s="7" customFormat="1" spans="1:13">
+      <c r="A129" s="51"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="51"/>
+      <c r="L129" s="58"/>
+      <c r="M129" s="58"/>
+    </row>
+    <row r="130" s="7" customFormat="1" spans="1:13">
+      <c r="A130" s="51"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="62"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="62"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
+      <c r="K130" s="51"/>
+      <c r="L130" s="58"/>
+      <c r="M130" s="58"/>
+    </row>
+    <row r="131" s="7" customFormat="1" spans="1:13">
+      <c r="A131" s="51"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="62"/>
+      <c r="G131" s="62"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="51"/>
+      <c r="L131" s="58"/>
+      <c r="M131" s="58"/>
+    </row>
+    <row r="132" s="7" customFormat="1" spans="1:13">
+      <c r="A132" s="51"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="62"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
+      <c r="K132" s="51"/>
+      <c r="L132" s="58"/>
+      <c r="M132" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
